--- a/biology/Zoologie/Espace_Faune_de_la_forêt_d'Orient/Espace_Faune_de_la_forêt_d'Orient.xlsx
+++ b/biology/Zoologie/Espace_Faune_de_la_forêt_d'Orient/Espace_Faune_de_la_forêt_d'Orient.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Espace_Faune_de_la_for%C3%AAt_d%27Orient</t>
+          <t>Espace_Faune_de_la_forêt_d'Orient</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Espace Faune de la forêt d'Orient est un parc animalier sur le territoire communal de Piney, dans l'Aube, en France. Il est situé sur une péninsule de 89 hectares s'avançant sur le lac d'Orient, dans la forêt d'Orient, au sein du parc naturel régional de la forêt d'Orient. Il permet de découvrir les mammifères qui peuplent ou peuplaient les massifs forestiers européens, par exemple les bisons d'Europe.
